--- a/biology/Botanique/Eleiodoxa/Eleiodoxa.xlsx
+++ b/biology/Botanique/Eleiodoxa/Eleiodoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleiodoxa est un genre de la famille des Arecaceae (Palmiers) qui ne comprend qu'une seule espèce, Eleiodoxa conferta.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Calamoideae
 Tribu des Calameae
-Sous-tribu des Salaccinae[2]
+Sous-tribu des Salaccinae
 Sa sous-tribu comprend un autre genre : Salacca.
 </t>
         </is>
@@ -545,16 +559,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 mars 2020)[3], Catalogue of Life                                   (3 mars 2020)[4], World Checklist of Selected Plant Families (WCSP)  (3 mars 2020)[5] et The Plant List            (3 mars 2020)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 mars 2020), Catalogue of Life                                   (3 mars 2020), World Checklist of Selected Plant Families (WCSP)  (3 mars 2020) et The Plant List            (3 mars 2020) :
 Eleiodoxa conferta (Griff.) Burret (1942)
-Selon Tropicos                                           (3 mars 2020)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 Eleiodoxa conferta (Griff.) Burret
-Eleiodoxa microcarpa Burret           = Eleiodoxa conferta [8]
-Eleiodoxa orthoschista Burret         = Eleiodoxa conferta [8]
-Eleiodoxa scortechinii (Becc.) Burret = Eleiodoxa conferta [8]
-Eleiodoxa xantholepis Burret          = Eleiodoxa conferta [8]</t>
+Eleiodoxa microcarpa Burret           = Eleiodoxa conferta 
+Eleiodoxa orthoschista Burret         = Eleiodoxa conferta 
+Eleiodoxa scortechinii (Becc.) Burret = Eleiodoxa conferta 
+Eleiodoxa xantholepis Burret          = Eleiodoxa conferta </t>
         </is>
       </c>
     </row>
